--- a/models/model.xlsx
+++ b/models/model.xlsx
@@ -1285,299 +1285,299 @@
 import math
 executeOnCaeStartup()
 def create_workpiece_part(length, inner, outer, angle):
- s = mdb.models['Model-1'].ConstrainedSketch(name='__profile__', sheetSize=0.1)
- g, v, d, c = s.geometry, s.vertices, s.dimensions, s.constraints
- s.sketchOptions.setValues(decimalPlaces=3)
- s.setPrimaryObject(option=STANDALONE)
- s.CircleByCenterPerimeter(center=(0.0, 0.0), point1=(0.0, inner))
- s.CircleByCenterPerimeter(center=(0.0, 0.0), point1=(0.0, outer))
- p = mdb.models['Model-1'].Part(name='Part', dimensionality=THREE_D, 
-  type=DEFORMABLE_BODY)
- p = mdb.models['Model-1'].parts['Part']
- p.BaseSolidExtrude(sketch=s, depth=length)
- s.unsetPrimaryObject()
- p = mdb.models['Model-1'].parts['Part']
- session.viewports['Viewport: 1'].setValues(displayedObject=p)
- del mdb.models['Model-1'].sketches['__profile__']
- __create_workpiece_partion(p.name)
- __create_workpiece_partion_by_angle(p.name, angle)
- sys.__stdout__.write("Create workpiece model"+" Length:"+str(length)+" Inner:"+str(inner)+" Outer:"+str(outer)+"\n")
- return p.name
+    s = mdb.models['Model-1'].ConstrainedSketch(name='__profile__', sheetSize=0.1)
+    g, v, d, c = s.geometry, s.vertices, s.dimensions, s.constraints
+    s.sketchOptions.setValues(decimalPlaces=3)
+    s.setPrimaryObject(option=STANDALONE)
+    s.CircleByCenterPerimeter(center=(0.0, 0.0), point1=(0.0, inner))
+    s.CircleByCenterPerimeter(center=(0.0, 0.0), point1=(0.0, outer))
+    p = mdb.models['Model-1'].Part(name='Part', dimensionality=THREE_D, 
+        type=DEFORMABLE_BODY)
+    p = mdb.models['Model-1'].parts['Part']
+    p.BaseSolidExtrude(sketch=s, depth=length)
+    s.unsetPrimaryObject()
+    p = mdb.models['Model-1'].parts['Part']
+    session.viewports['Viewport: 1'].setValues(displayedObject=p)
+    del mdb.models['Model-1'].sketches['__profile__']
+    __create_workpiece_partion(p.name)
+    __create_workpiece_partion_by_angle(p.name, angle)
+    sys.__stdout__.write("Create workpiece model"+" Length:"+str(length)+" Inner:"+str(inner)+" Outer:"+str(outer)+"\n")
+    return p.name
 def __create_workpiece_partion(part_name):
- p = mdb.models['Model-1'].parts[part_name]
- p0 = p.DatumPointByCoordinate(coords=(0.0, 0.0, 0.0)).id
- p1 = p.DatumPointByCoordinate(coords=(0.1, 0.0, 0.0)).id
- p2 = p.DatumPointByCoordinate(coords=(-0.05, math.sqrt(3)/2/10, 0.0 )).id
- p3 = p.DatumPointByCoordinate(coords=(-0.05, -math.sqrt(3)/2/10, 0.0)).id
- p4 = p.DatumPointByCoordinate(coords=(0.0, 0.0, 0.1)).id
- p = mdb.models['Model-1'].parts[part_name]
- v1, e1, d1 = p.vertices, p.edges, p.datums
- c=p.cells
- p.PartitionCellByPlaneThreePoints(cells=c, point1=d1[p0], point2=d1[p1], point3=d1[p4])
- c=p.cells
- p.PartitionCellByPlaneThreePoints(cells=c, point1=d1[p0], point2=d1[p2], point3=d1[p4])
- c=p.cells
- p.PartitionCellByPlaneThreePoints(cells=c, point1=d1[p0], point2=d1[p3], point3=d1[p4])
- return p.name
+    p = mdb.models['Model-1'].parts[part_name]
+    p0 = p.DatumPointByCoordinate(coords=(0.0, 0.0, 0.0)).id
+    p1 = p.DatumPointByCoordinate(coords=(0.1, 0.0, 0.0)).id
+    p2 = p.DatumPointByCoordinate(coords=(-0.05, math.sqrt(3)/2/10, 0.0 )).id
+    p3 = p.DatumPointByCoordinate(coords=(-0.05, -math.sqrt(3)/2/10, 0.0)).id
+    p4 = p.DatumPointByCoordinate(coords=(0.0, 0.0, 0.1)).id
+    p = mdb.models['Model-1'].parts[part_name]
+    v1, e1, d1 = p.vertices, p.edges, p.datums
+    c=p.cells
+    p.PartitionCellByPlaneThreePoints(cells=c, point1=d1[p0], point2=d1[p1], point3=d1[p4])
+    c=p.cells
+    p.PartitionCellByPlaneThreePoints(cells=c, point1=d1[p0], point2=d1[p2], point3=d1[p4])
+    c=p.cells
+    p.PartitionCellByPlaneThreePoints(cells=c, point1=d1[p0], point2=d1[p3], point3=d1[p4])
+    return p.name
 def __create_workpiece_partion_by_angle(part_name, angle):
- p = mdb.models['Model-1'].parts[part_name]
- p0 = p.DatumPointByCoordinate(coords=(0.0, 0.0, 0.0)).id
- x = math.cos(math.radians(angle))
- y = math.sin(math.radians(angle))
- p1 = p.DatumPointByCoordinate(coords=(x, y, 0.0)).id
- p2 = p.DatumPointByCoordinate(coords=(0.0, 0.0, 0.1)).id
- v1, e1, d1 = p.vertices, p.edges, p.datums
- for c in p.cells:
-  try:
-   p.PartitionCellByPlaneThreePoints(cells=c, point1=d1[p0], point2=d1[p1], point3=d1[p2])
-  except:
-   pass
+    p = mdb.models['Model-1'].parts[part_name]
+    p0 = p.DatumPointByCoordinate(coords=(0.0, 0.0, 0.0)).id
+    x = math.cos(math.radians(angle))
+    y = math.sin(math.radians(angle))
+    p1 = p.DatumPointByCoordinate(coords=(x, y, 0.0)).id
+    p2 = p.DatumPointByCoordinate(coords=(0.0, 0.0, 0.1)).id
+    v1, e1, d1 = p.vertices, p.edges, p.datums
+    for c in p.cells:
+        try:
+            p.PartitionCellByPlaneThreePoints(cells=c, point1=d1[p0], point2=d1[p1], point3=d1[p2])
+        except:
+            pass
 def create_jaw_part(length, height, width):
- """Creates a jaw part"""
- s = mdb.models['Model-1'].ConstrainedSketch(name='__profile__', sheetSize=0.1) # 
- g, v, d, c = s.geometry, s.vertices, s.dimensions, s.constraints #
- s.sketchOptions.setValues(decimalPlaces=3)
- s.setPrimaryObject(option=STANDALONE)
- s.rectangle(point1=(0.0, 0.0), point2=(length, height)) #
- p = mdb.models['Model-1'].Part(name='Jaw', dimensionality=THREE_D, 
-     type=DEFORMABLE_BODY) # 
- p = mdb.models['Model-1'].parts['Jaw']
- p.BaseSolidExtrude(sketch=s, depth=width) #
- s.unsetPrimaryObject()
- p = mdb.models['Model-1'].parts['Jaw']
- del mdb.models['Model-1'].sketches['__profile__'] #
- __create_jaw_partion(p.name, length, height, width)
- sys.__stdout__.write("Create jaw part "+" Length:"+str(length)+" Height:"+str(height)+" Width:"+str(width)+"\n")
- return p.name
+    """Creates a jaw part"""
+    s = mdb.models['Model-1'].ConstrainedSketch(name='__profile__', sheetSize=0.1) # 
+    g, v, d, c = s.geometry, s.vertices, s.dimensions, s.constraints #
+    s.sketchOptions.setValues(decimalPlaces=3)
+    s.setPrimaryObject(option=STANDALONE)
+    s.rectangle(point1=(0.0, 0.0), point2=(length, height)) #
+    p = mdb.models['Model-1'].Part(name='Jaw', dimensionality=THREE_D, 
+                    type=DEFORMABLE_BODY) # 
+    p = mdb.models['Model-1'].parts['Jaw']
+    p.BaseSolidExtrude(sketch=s, depth=width) #
+    s.unsetPrimaryObject()
+    p = mdb.models['Model-1'].parts['Jaw']
+    del mdb.models['Model-1'].sketches['__profile__'] #
+    __create_jaw_partion(p.name, length, height, width)
+    sys.__stdout__.write("Create jaw part "+" Length:"+str(length)+" Height:"+str(height)+" Width:"+str(width)+"\n")
+    return p.name
 def __create_jaw_partion(part_name, length, height, width):
- p = mdb.models['Model-1'].parts[part_name]
- p1 = p.DatumPointByCoordinate(coords=(length/2, 0.0, 0.0)).id
- p2 = p.DatumPointByCoordinate(coords=(length/2, height, width)).id
- p3 = p.DatumPointByCoordinate(coords=(length/2, 0, width)).id
- c, v1, e1, d1 = p.cells, p.vertices, p.edges, p.datums
- p.PartitionCellByPlaneThreePoints(cells=c, point1=d1[p1], point2=d1[p2], point3=d1[p3])
- return p.name
+    p = mdb.models['Model-1'].parts[part_name]
+    p1 = p.DatumPointByCoordinate(coords=(length/2, 0.0, 0.0)).id
+    p2 = p.DatumPointByCoordinate(coords=(length/2, height, width)).id
+    p3 = p.DatumPointByCoordinate(coords=(length/2, 0, width)).id
+    c, v1, e1, d1 = p.cells, p.vertices, p.edges, p.datums
+    p.PartitionCellByPlaneThreePoints(cells=c, point1=d1[p1], point2=d1[p2], point3=d1[p3])
+    return p.name
 def create_section(section_name,material_name):
- mdb.models['Model-1'].HomogeneousSolidSection(name=section_name, material=material_name, thickness=None)
- return section_name
+    mdb.models['Model-1'].HomogeneousSolidSection(name=section_name, material=material_name, thickness=None)
+    return section_name
 def create_material(material_name,young,poisson):
- """Creates material with specified name, Young's modulus and Poisson ratio"""
- mdb.models['Model-1'].Material(name=material_name)
- mdb.models['Model-1'].materials[material_name].Elastic(table=((young, poisson), ))
- sys.__stdout__.write("Create material "+material_name+" Young modulus:"+str(young)+" Poisson ratio:"+str(poisson)+"\n")
- return material_name
+    """Creates material with specified name, Young's modulus and Poisson ratio"""
+    mdb.models['Model-1'].Material(name=material_name)
+    mdb.models['Model-1'].materials[material_name].Elastic(table=((young, poisson), ))
+    sys.__stdout__.write("Create material "+material_name+" Young modulus:"+str(young)+" Poisson ratio:"+str(poisson)+"\n")
+    return material_name
 def mesh_part(part_name, size, dev_factor, min_size_factor):
- p = mdb.models['Model-1'].parts[part_name]
- p.seedPart(size=size, deviationFactor=dev_factor, minSizeFactor=min_size_factor)
- c = p.cells
- p.setMeshControls(regions=c, technique=SWEEP) # 
- p = mdb.models['Model-1'].parts[part_name]
- p.generateMesh()
- sys.__stdout__.write("Mesh part"+"\n")
+    p = mdb.models['Model-1'].parts[part_name]
+    p.seedPart(size=size, deviationFactor=dev_factor, minSizeFactor=min_size_factor)
+    c = p.cells
+    p.setMeshControls(regions=c, technique=SWEEP) # 
+    p = mdb.models['Model-1'].parts[part_name]
+    p.generateMesh()
+    sys.__stdout__.write("Mesh part"+"\n")
 def create_property():
- mdb.models['Model-1'].ContactProperty('IntProp-1')
- mdb.models['Model-1'].interactionProperties['IntProp-1'].TangentialBehavior(formulation=ROUGH)
- mdb.models['Model-1'].interactionProperties['IntProp-1'].NormalBehavior(pressureOverclosure=HARD, allowSeparation=ON, constraintEnforcementMethod=DEFAULT)
- return mdb.models['Model-1'].interactionProperties['IntProp-1']
+    mdb.models['Model-1'].ContactProperty('IntProp-1')
+    mdb.models['Model-1'].interactionProperties['IntProp-1'].TangentialBehavior(formulation=ROUGH)
+    mdb.models['Model-1'].interactionProperties['IntProp-1'].NormalBehavior(pressureOverclosure=HARD, allowSeparation=ON, constraintEnforcementMethod=DEFAULT)
+    return mdb.models['Model-1'].interactionProperties['IntProp-1']
 def create_assembly(displ, outer, length, Fx, Fy, Fz, angle):
- create_property()
- a = mdb.models['Model-1'].rootAssembly
- a.DatumCsysByDefault(CARTESIAN)
- p = mdb.models['Model-1'].parts['Part']
- a.Instance(name='Part-1', part=p, dependent=ON)
- p = mdb.models['Model-1'].parts['Jaw']
- a.Instance(name='Jaw-1', part=p, dependent=ON)
- a.translate(instanceList=('Jaw-1', ), vector=(-jaw_width/2, 0.0, 0.0))
- a.rotate(instanceList=('Jaw-1', ), axisPoint=(0.0, 0.0, 0.0), axisDirection=(0.0, 0.0, 1), angle=-90.0)
- a.translate(instanceList=('Jaw-1', ), vector=(outer, 0.0, 0.0))
- a.RadialInstancePattern(instanceList=('Jaw-1', ), point=(0.0, 0.0, 0.0), axis=(0.0, 0.0, 1.0), number=3, totalAngle=360.0)
- sys.__stdout__.write("Create assembly"+"\n") 
- create_interaction()
- c_systems = create_CSYS()
- create_step()
- create_BSs(c_systems)
- create_displ(displ)
- create_force_CSYS(outer, length, angle)
- create_force(Fx, Fy, Fz, angle)
+    create_property()
+    a = mdb.models['Model-1'].rootAssembly
+    a.DatumCsysByDefault(CARTESIAN)
+    p = mdb.models['Model-1'].parts['Part']
+    a.Instance(name='Part-1', part=p, dependent=ON)
+    p = mdb.models['Model-1'].parts['Jaw']
+    a.Instance(name='Jaw-1', part=p, dependent=ON)
+    a.translate(instanceList=('Jaw-1', ), vector=(-jaw_width/2, 0.0, 0.0))
+    a.rotate(instanceList=('Jaw-1', ), axisPoint=(0.0, 0.0, 0.0), axisDirection=(0.0, 0.0, 1), angle=-90.0)
+    a.translate(instanceList=('Jaw-1', ), vector=(outer, 0.0, 0.0))
+    a.RadialInstancePattern(instanceList=('Jaw-1', ), point=(0.0, 0.0, 0.0), axis=(0.0, 0.0, 1.0), number=3, totalAngle=360.0)
+    sys.__stdout__.write("Create assembly"+"\n") 
+    create_interaction()
+    c_systems = create_CSYS()
+    create_step()
+    create_BSs(c_systems)
+    create_displ(displ)
+    create_force_CSYS(outer, length, angle)
+    create_force(Fx, Fy, Fz, angle)
 def create_force_CSYS(outer, length, angle):
- Ox = outer * math.cos(math.radians(angle))
- Oy = outer * math.sin(math.radians(angle))
- Oz = length
- #hypotenuse = math.sqrt(0.01**2 + outer**2)
- #sinD = 0.01 / hypotenuse
- #D = math.asin(sinD)
- #A = angle + D
- #Ax = hypotenuse * math.cos(A)
- #Ay = hypotenuse * math.sin(A)
- #Az = length
- Ax = (outer-0.001) * math.cos(math.radians(angle))
- Ay = (outer-0.001) * math.sin(math.radians(angle))
- Az = length
- force_CSYS = mdb.models['Model-1'].rootAssembly.DatumCsysByThreePoints(name='force_CSYS', 
-  coordSysType=CARTESIAN, origin=(Ox, Oy, Oz), point1=(Ax, Ay, Az), 
-  point2=(Ax-0.01, Ay-0.01, Az))
- return force_CSYS
+    Ox = outer * math.cos(math.radians(angle))
+    Oy = outer * math.sin(math.radians(angle))
+    Oz = length
+    #hypotenuse = math.sqrt(0.01**2 + outer**2)
+    #sinD = 0.01 / hypotenuse
+    #D = math.asin(sinD)
+    #A = angle + D
+    #Ax = hypotenuse * math.cos(A)
+    #Ay = hypotenuse * math.sin(A)
+    #Az = length
+    Ax = (outer-0.001) * math.cos(math.radians(angle))
+    Ay = (outer-0.001) * math.sin(math.radians(angle))
+    Az = length
+    force_CSYS = mdb.models['Model-1'].rootAssembly.DatumCsysByThreePoints(name='force_CSYS', 
+        coordSysType=CARTESIAN, origin=(Ox, Oy, Oz), point1=(Ax, Ay, Az), 
+        point2=(Ax-0.01, Ay-0.01, Az))
+    return force_CSYS
 def create_force(Fx, Fy, Fz, angle):
- pass
+    pass
 def __get_xy(radius, ref_angle):
- x1 = radius * math.cos(math.radians(ref_angle+0.05))
- x2 = radius * math.cos(math.radians(ref_angle-0.05))
- y1 = radius * math.sin(math.radians(ref_angle+0.05))
- y2 = radius * math.sin(math.radians(ref_angle-0.05))
- return x1, y1, x2,y2
+    x1 = radius * math.cos(math.radians(ref_angle+0.05))
+    x2 = radius * math.cos(math.radians(ref_angle-0.05))
+    y1 = radius * math.sin(math.radians(ref_angle+0.05))
+    y2 = radius * math.sin(math.radians(ref_angle-0.05))
+    return x1, y1, x2,y2
 def create_interaction():
- z = jaw_length/100
- x1, y1, x2,y2 = __get_xy(outer, 0)
- a = mdb.models['Model-1'].rootAssembly
- s1 = a.instances['Jaw-1'].faces
- side1Faces1 = s1.findAt(((x1, y1, z), ), ((x2, y2, z), ))
- # side1Faces1 = s1.getSequenceFromMask(mask=('[#110 ]', ), )
- region1=a.Surface(side1Faces=side1Faces1, name='m_Surf-1')
- a = mdb.models['Model-1'].rootAssembly
- s1 = a.instances['Part-1'].faces
- side1Faces1 = s1.findAt(((x1, y1, z), ), ((x2, y2, z), ))
- # side1Faces1 = s1.getSequenceFromMask(mask=('[#800004 ]', ), )
- region2=a.Surface(side1Faces=side1Faces1, name='s_Surf-1')
- mdb.models['Model-1'].SurfaceToSurfaceContactStd(name='Int-1', 
-  createStepName='Initial', master=region1, slave=region2, sliding=FINITE, 
-  thickness=ON, interactionProperty='IntProp-1', adjustMethod=NONE, 
-  initialClearance=OMIT, datumAxis=None, clearanceRegion=None)
- x1, y1, x2,y2 = __get_xy(outer, 120) 
- a = mdb.models['Model-1'].rootAssembly
- s1 = a.instances['Jaw-1-rad-2'].faces
- side1Faces1 = s1.findAt(((x1, y1, z), ), ((x2, y2, z), ))
- # side1Faces1 = s1.getSequenceFromMask(mask=('[#110 ]', ), )
- region1=a.Surface(side1Faces=side1Faces1, name='m_Surf-5')
- a = mdb.models['Model-1'].rootAssembly
- s1 = a.instances['Part-1'].faces
- side1Faces1 = s1.findAt(((x1, y1, z), ), ((x2, y2, z), ))
- # side1Faces1 = s1.getSequenceFromMask(mask=('[#4020000 ]', ), )
- region2=a.Surface(side1Faces=side1Faces1, name='s_Surf-5')
- mdb.models['Model-1'].SurfaceToSurfaceContactStd(name='Int-3', 
-  createStepName='Initial', master=region1, slave=region2, sliding=FINITE, 
-  thickness=ON, interactionProperty='IntProp-1', adjustMethod=NONE, 
-  initialClearance=OMIT, datumAxis=None, clearanceRegion=None)
- x1, y1, x2,y2 = __get_xy(outer, 240) 
- a = mdb.models['Model-1'].rootAssembly
- s1 = a.instances['Jaw-1-rad-3'].faces
- side1Faces1 = s1.findAt(((x1, y1, z), ), ((x2, y2, z), ))
- # side1Faces1 = s1.getSequenceFromMask(mask=('[#110 ]', ), )
- region1=a.Surface(side1Faces=side1Faces1, name='m_Surf-6')
- a = mdb.models['Model-1'].rootAssembly
- s1 = a.instances['Part-1'].faces
- side1Faces1 = s1.findAt(((x1, y1, z), ), ((x2, y2, z), ))
- # side1Faces1 = s1.getSequenceFromMask(mask=('[#2200 ]', ), )
- region2=a.Surface(side1Faces=side1Faces1, name='s_Surf-6')
- mdb.models['Model-1'].SurfaceToSurfaceContactStd(name='Int-4', 
-  createStepName='Initial', master=region1, slave=region2, sliding=FINITE, 
-  thickness=ON, interactionProperty='IntProp-1', adjustMethod=NONE, 
-  initialClearance=OMIT, datumAxis=None, clearanceRegion=None)
+    z = jaw_length/100
+    x1, y1, x2,y2 = __get_xy(outer, 0)
+    a = mdb.models['Model-1'].rootAssembly
+    s1 = a.instances['Jaw-1'].faces
+    side1Faces1 = s1.findAt(((x1, y1, z), ), ((x2, y2, z), ))
+    # side1Faces1 = s1.getSequenceFromMask(mask=('[#110 ]', ), )
+    region1=a.Surface(side1Faces=side1Faces1, name='m_Surf-1')
+    a = mdb.models['Model-1'].rootAssembly
+    s1 = a.instances['Part-1'].faces
+    side1Faces1 = s1.findAt(((x1, y1, z), ), ((x2, y2, z), ))
+    # side1Faces1 = s1.getSequenceFromMask(mask=('[#800004 ]', ), )
+    region2=a.Surface(side1Faces=side1Faces1, name='s_Surf-1')
+    mdb.models['Model-1'].SurfaceToSurfaceContactStd(name='Int-1', 
+        createStepName='Initial', master=region1, slave=region2, sliding=FINITE, 
+        thickness=ON, interactionProperty='IntProp-1', adjustMethod=NONE, 
+        initialClearance=OMIT, datumAxis=None, clearanceRegion=None)
+    x1, y1, x2,y2 = __get_xy(outer, 120) 
+    a = mdb.models['Model-1'].rootAssembly
+    s1 = a.instances['Jaw-1-rad-2'].faces
+    side1Faces1 = s1.findAt(((x1, y1, z), ), ((x2, y2, z), ))
+    # side1Faces1 = s1.getSequenceFromMask(mask=('[#110 ]', ), )
+    region1=a.Surface(side1Faces=side1Faces1, name='m_Surf-5')
+    a = mdb.models['Model-1'].rootAssembly
+    s1 = a.instances['Part-1'].faces
+    side1Faces1 = s1.findAt(((x1, y1, z), ), ((x2, y2, z), ))
+    # side1Faces1 = s1.getSequenceFromMask(mask=('[#4020000 ]', ), )
+    region2=a.Surface(side1Faces=side1Faces1, name='s_Surf-5')
+    mdb.models['Model-1'].SurfaceToSurfaceContactStd(name='Int-3', 
+        createStepName='Initial', master=region1, slave=region2, sliding=FINITE, 
+        thickness=ON, interactionProperty='IntProp-1', adjustMethod=NONE, 
+        initialClearance=OMIT, datumAxis=None, clearanceRegion=None)
+    x1, y1, x2,y2 = __get_xy(outer, 240) 
+    a = mdb.models['Model-1'].rootAssembly
+    s1 = a.instances['Jaw-1-rad-3'].faces
+    side1Faces1 = s1.findAt(((x1, y1, z), ), ((x2, y2, z), ))
+    # side1Faces1 = s1.getSequenceFromMask(mask=('[#110 ]', ), )
+    region1=a.Surface(side1Faces=side1Faces1, name='m_Surf-6')
+    a = mdb.models['Model-1'].rootAssembly
+    s1 = a.instances['Part-1'].faces
+    side1Faces1 = s1.findAt(((x1, y1, z), ), ((x2, y2, z), ))
+    # side1Faces1 = s1.getSequenceFromMask(mask=('[#2200 ]', ), )
+    region2=a.Surface(side1Faces=side1Faces1, name='s_Surf-6')
+    mdb.models['Model-1'].SurfaceToSurfaceContactStd(name='Int-4', 
+        createStepName='Initial', master=region1, slave=region2, sliding=FINITE, 
+        thickness=ON, interactionProperty='IntProp-1', adjustMethod=NONE, 
+        initialClearance=OMIT, datumAxis=None, clearanceRegion=None)
 def create_CSYS():
- res=[]
- a = mdb.models['Model-1'].rootAssembly
- d1 = a.instances['Jaw-1'].datums
- v1 = a.instances['Jaw-1'].vertices
- d2 = a.instances['Part-1'].datums
- res.append(a.DatumCsysByThreePoints(origin=d1[2], point1=v1[4], point2=d2[2], 
-  name='Datum csys-2', coordSysType=CARTESIAN))
- a = mdb.models['Model-1'].rootAssembly
- d11 = a.instances['Jaw-1-rad-2'].datums
- v11 = a.instances['Jaw-1-rad-2'].vertices
- res.append(a.DatumCsysByThreePoints(origin=d11[2], point1=v11[4], point2=d2[2], 
-  name='Datum csys-3', coordSysType=CARTESIAN))
- a = mdb.models['Model-1'].rootAssembly
- d12 = a.instances['Jaw-1-rad-3'].datums
- v12 = a.instances['Jaw-1-rad-3'].vertices
- res.append(a.DatumCsysByThreePoints(origin=d12[2], point1=v12[4], point2=d2[2], 
-  name='Datum csys-4', coordSysType=CARTESIAN))
- return res
+    res=[]
+    a = mdb.models['Model-1'].rootAssembly
+    d1 = a.instances['Jaw-1'].datums
+    v1 = a.instances['Jaw-1'].vertices
+    d2 = a.instances['Part-1'].datums
+    res.append(a.DatumCsysByThreePoints(origin=d1[2], point1=v1[4], point2=d2[2], 
+        name='Datum csys-2', coordSysType=CARTESIAN))
+    a = mdb.models['Model-1'].rootAssembly
+    d11 = a.instances['Jaw-1-rad-2'].datums
+    v11 = a.instances['Jaw-1-rad-2'].vertices
+    res.append(a.DatumCsysByThreePoints(origin=d11[2], point1=v11[4], point2=d2[2], 
+        name='Datum csys-3', coordSysType=CARTESIAN))
+    a = mdb.models['Model-1'].rootAssembly
+    d12 = a.instances['Jaw-1-rad-3'].datums
+    v12 = a.instances['Jaw-1-rad-3'].vertices
+    res.append(a.DatumCsysByThreePoints(origin=d12[2], point1=v12[4], point2=d2[2], 
+        name='Datum csys-4', coordSysType=CARTESIAN))
+    return res
 def create_BSs(c_systems):
- a = mdb.models['Model-1'].rootAssembly
- f1 = a.instances['Jaw-1'].faces
- faces1 = f1.getSequenceFromMask(mask=('[#402 ]', ), )
- region = a.Set(faces=faces1, name='Set-1')
- datum = mdb.models['Model-1'].rootAssembly.datums[c_systems[0].id]
- mdb.models['Model-1'].DisplacementBC(name='BC-1', createStepName='Initial', 
-  region=region, u1=SET, u2=UNSET, u3=SET, ur1=UNSET, ur2=UNSET, ur3=UNSET, 
-  amplitude=UNSET, distributionType=UNIFORM, fieldName='', localCsys=datum)
- a = mdb.models['Model-1'].rootAssembly
- f1 = a.instances['Jaw-1-rad-2'].faces
- faces1 = f1.getSequenceFromMask(mask=('[#402 ]', ), )
- region = a.Set(faces=faces1, name='Set-2')
- datum = mdb.models['Model-1'].rootAssembly.datums[c_systems[1].id]
- mdb.models['Model-1'].DisplacementBC(name='BC-2', createStepName='Initial', 
-  region=region, u1=SET, u2=UNSET, u3=SET, ur1=UNSET, ur2=UNSET, ur3=UNSET, 
-  amplitude=UNSET, distributionType=UNIFORM, fieldName='', localCsys=datum)
- a = mdb.models['Model-1'].rootAssembly
- f1 = a.instances['Jaw-1-rad-3'].faces
- faces1 = f1.getSequenceFromMask(mask=('[#402 ]', ), )
- region = a.Set(faces=faces1, name='Set-3')
- datum = mdb.models['Model-1'].rootAssembly.datums[c_systems[2].id]
- mdb.models['Model-1'].DisplacementBC(name='BC-3', createStepName='Initial', 
-  region=region, u1=SET, u2=UNSET, u3=SET, ur1=UNSET, ur2=UNSET, ur3=UNSET, 
-  amplitude=UNSET, distributionType=UNIFORM, fieldName='', localCsys=datum)
+    a = mdb.models['Model-1'].rootAssembly
+    f1 = a.instances['Jaw-1'].faces
+    faces1 = f1.getSequenceFromMask(mask=('[#402 ]', ), )
+    region = a.Set(faces=faces1, name='Set-1')
+    datum = mdb.models['Model-1'].rootAssembly.datums[c_systems[0].id]
+    mdb.models['Model-1'].DisplacementBC(name='BC-1', createStepName='Initial', 
+        region=region, u1=SET, u2=UNSET, u3=SET, ur1=UNSET, ur2=UNSET, ur3=UNSET, 
+        amplitude=UNSET, distributionType=UNIFORM, fieldName='', localCsys=datum)
+    a = mdb.models['Model-1'].rootAssembly
+    f1 = a.instances['Jaw-1-rad-2'].faces
+    faces1 = f1.getSequenceFromMask(mask=('[#402 ]', ), )
+    region = a.Set(faces=faces1, name='Set-2')
+    datum = mdb.models['Model-1'].rootAssembly.datums[c_systems[1].id]
+    mdb.models['Model-1'].DisplacementBC(name='BC-2', createStepName='Initial', 
+        region=region, u1=SET, u2=UNSET, u3=SET, ur1=UNSET, ur2=UNSET, ur3=UNSET, 
+        amplitude=UNSET, distributionType=UNIFORM, fieldName='', localCsys=datum)
+    a = mdb.models['Model-1'].rootAssembly
+    f1 = a.instances['Jaw-1-rad-3'].faces
+    faces1 = f1.getSequenceFromMask(mask=('[#402 ]', ), )
+    region = a.Set(faces=faces1, name='Set-3')
+    datum = mdb.models['Model-1'].rootAssembly.datums[c_systems[2].id]
+    mdb.models['Model-1'].DisplacementBC(name='BC-3', createStepName='Initial', 
+        region=region, u1=SET, u2=UNSET, u3=SET, ur1=UNSET, ur2=UNSET, ur3=UNSET, 
+        amplitude=UNSET, distributionType=UNIFORM, fieldName='', localCsys=datum)
 def create_step():
- mdb.models['Model-1'].StaticStep(name='Step-1', previous='Initial')
+    mdb.models['Model-1'].StaticStep(name='Step-1', previous='Initial')
 def create_displ(displ):
- a = mdb.models['Model-1'].rootAssembly
- f1 = a.instances['Jaw-1'].faces
- faces1 = f1.getSequenceFromMask(mask=('[#44 ]', ), )
- region = a.Set(faces=faces1, name='Set-4')
- datum = mdb.models['Model-1'].rootAssembly.datums[16]
- mdb.models['Model-1'].DisplacementBC(name='BC-4', createStepName='Step-1', 
-  region=region, u1=UNSET, u2=displ, u3=UNSET, ur1=UNSET, ur2=UNSET, 
-  ur3=UNSET, amplitude=UNSET, fixed=OFF, distributionType=UNIFORM, 
-  fieldName='', localCsys=datum)
- a = mdb.models['Model-1'].rootAssembly
- f1 = a.instances['Jaw-1-rad-2'].faces
- faces1 = f1.getSequenceFromMask(mask=('[#44 ]', ), )
- region = a.Set(faces=faces1, name='Set-5')
- datum = mdb.models['Model-1'].rootAssembly.datums[17]
- mdb.models['Model-1'].DisplacementBC(name='BC-5', createStepName='Step-1', 
-  region=region, u1=UNSET, u2=displ, u3=UNSET, ur1=UNSET, ur2=UNSET, 
-  ur3=UNSET, amplitude=UNSET, fixed=OFF, distributionType=UNIFORM, 
-  fieldName='', localCsys=datum)
- a = mdb.models['Model-1'].rootAssembly
- f1 = a.instances['Jaw-1-rad-3'].faces
- faces1 = f1.getSequenceFromMask(mask=('[#44 ]', ), )
- region = a.Set(faces=faces1, name='Set-6')
- datum = mdb.models['Model-1'].rootAssembly.datums[18]
- mdb.models['Model-1'].DisplacementBC(name='BC-6', createStepName='Step-1', 
-  region=region, u1=UNSET, u2=displ, u3=UNSET, ur1=UNSET, ur2=UNSET, 
-  ur3=UNSET, amplitude=UNSET, fixed=OFF, distributionType=UNIFORM, 
-  fieldName='', localCsys=datum)
+    a = mdb.models['Model-1'].rootAssembly
+    f1 = a.instances['Jaw-1'].faces
+    faces1 = f1.getSequenceFromMask(mask=('[#44 ]', ), )
+    region = a.Set(faces=faces1, name='Set-4')
+    datum = mdb.models['Model-1'].rootAssembly.datums[16]
+    mdb.models['Model-1'].DisplacementBC(name='BC-4', createStepName='Step-1', 
+        region=region, u1=UNSET, u2=displ, u3=UNSET, ur1=UNSET, ur2=UNSET, 
+        ur3=UNSET, amplitude=UNSET, fixed=OFF, distributionType=UNIFORM, 
+        fieldName='', localCsys=datum)
+    a = mdb.models['Model-1'].rootAssembly
+    f1 = a.instances['Jaw-1-rad-2'].faces
+    faces1 = f1.getSequenceFromMask(mask=('[#44 ]', ), )
+    region = a.Set(faces=faces1, name='Set-5')
+    datum = mdb.models['Model-1'].rootAssembly.datums[17]
+    mdb.models['Model-1'].DisplacementBC(name='BC-5', createStepName='Step-1', 
+        region=region, u1=UNSET, u2=displ, u3=UNSET, ur1=UNSET, ur2=UNSET, 
+        ur3=UNSET, amplitude=UNSET, fixed=OFF, distributionType=UNIFORM, 
+        fieldName='', localCsys=datum)
+    a = mdb.models['Model-1'].rootAssembly
+    f1 = a.instances['Jaw-1-rad-3'].faces
+    faces1 = f1.getSequenceFromMask(mask=('[#44 ]', ), )
+    region = a.Set(faces=faces1, name='Set-6')
+    datum = mdb.models['Model-1'].rootAssembly.datums[18]
+    mdb.models['Model-1'].DisplacementBC(name='BC-6', createStepName='Step-1', 
+        region=region, u1=UNSET, u2=displ, u3=UNSET, ur1=UNSET, ur2=UNSET, 
+        ur3=UNSET, amplitude=UNSET, fixed=OFF, distributionType=UNIFORM, 
+        fieldName='', localCsys=datum)
 def assign_section(part_name, section_name):
- p = mdb.models['Model-1'].parts[part_name]
- cells = p.cells
- region = p.Set(cells=cells, name=part_name+'_material_region')
- p = mdb.models['Model-1'].parts[part_name]
- p.SectionAssignment(region=region, sectionName=section_name, offset=0.0, 
-    offsetType=MIDDLE_SURFACE, offsetField='', 
-    thicknessAssignment=FROM_SECTION)
+    p = mdb.models['Model-1'].parts[part_name]
+    cells = p.cells
+    region = p.Set(cells=cells, name=part_name+'_material_region')
+    p = mdb.models['Model-1'].parts[part_name]
+    p.SectionAssignment(region=region, sectionName=section_name, offset=0.0, 
+                offsetType=MIDDLE_SURFACE, offsetField='', 
+                thicknessAssignment=FROM_SECTION)
 def run_job(home):
- # Run job
- sys.__stdout__.write("Run job"+"\n")
- Job1 = mdb.Job(name='Job-1', model='Model-1', description='', type=ANALYSIS, 
- atTime=None, waitMinutes=0, waitHours=0, queue=None, memory=90, 
- memoryUnits=PERCENTAGE, getMemoryFromAnalysis=True, 
- explicitPrecision=SINGLE, nodalOutputPrecision=SINGLE, echoPrint=OFF, 
- modelPrint=OFF, contactPrint=OFF, historyPrint=OFF, userSubroutine='', 
- scratch=home, resultsFormat=ODB, multiprocessingMode=DEFAULT, numCpus=1, 
- numGPUs=0)
- sys.__stdout__.write("Submit"+"\n")
- Job1.submit(consistencyChecking=OFF)
- Job1.waitForCompletion()
- sys.__stdout__.write("Job completed"+"\n")
+    # Run job
+    sys.__stdout__.write("Run job"+"\n")
+    Job1 = mdb.Job(name='Job-1', model='Model-1', description='', type=ANALYSIS, 
+    atTime=None, waitMinutes=0, waitHours=0, queue=None, memory=90, 
+    memoryUnits=PERCENTAGE, getMemoryFromAnalysis=True, 
+    explicitPrecision=SINGLE, nodalOutputPrecision=SINGLE, echoPrint=OFF, 
+    modelPrint=OFF, contactPrint=OFF, historyPrint=OFF, userSubroutine='', 
+    scratch=home, resultsFormat=ODB, multiprocessingMode=DEFAULT, numCpus=1, 
+    numGPUs=0)
+    sys.__stdout__.write("Submit"+"\n")
+    Job1.submit(consistencyChecking=OFF)
+    Job1.waitForCompletion()
+    sys.__stdout__.write("Job completed"+"\n")
 def create_path():
- return session.Path(name='Path-1', type=EDGE_LIST, expression=(('PART-1', ((84, 3, 2, 
- 1), (96, 3, 2, 1), (108, 3, 2, 1), (120, 3, 2, 1), (132, 3, 2, 1), (144, 3, 
- 2, 1), (156, 3, 2, 1), (168, 3, 2, 1), (180, 3, 2, 1), (192, 3, 2, 1), (
- 204, 3, 2, 1), (216, 3, 2, 1), (228, 3, 2, 1), (240, 3, 2, 1), (252, 3, 2, 
- 1), (264, 3, 2, 1), (276, 3, 2, 1), (288, 3, 2, 1), (300, 3, 2, 1), (312, 
- 3, 2, 1), (324, 3, 2, 1), (336, 3, 2, 1), (348, 3, 2, 1), (360, 3, 2, 1), (
- 372, 3, 2, 1), (384, 3, 2, 1), (396, 3, 2, 1), (408, 3, 2, 1), (420, 3, 2, 
- 1), (432, 3, 2, 1), (12, 3, 2, 1), (24, 3, 2, 1), (36, 3, 2, 1), (48, 3, 2, 
- 1), (60, 3, 2, 1), )), ))
+    return session.Path(name='Path-1', type=EDGE_LIST, expression=(('PART-1', ((84, 3, 2, 
+    1), (96, 3, 2, 1), (108, 3, 2, 1), (120, 3, 2, 1), (132, 3, 2, 1), (144, 3, 
+    2, 1), (156, 3, 2, 1), (168, 3, 2, 1), (180, 3, 2, 1), (192, 3, 2, 1), (
+    204, 3, 2, 1), (216, 3, 2, 1), (228, 3, 2, 1), (240, 3, 2, 1), (252, 3, 2, 
+    1), (264, 3, 2, 1), (276, 3, 2, 1), (288, 3, 2, 1), (300, 3, 2, 1), (312, 
+    3, 2, 1), (324, 3, 2, 1), (336, 3, 2, 1), (348, 3, 2, 1), (360, 3, 2, 1), (
+    372, 3, 2, 1), (384, 3, 2, 1), (396, 3, 2, 1), (408, 3, 2, 1), (420, 3, 2, 
+    1), (432, 3, 2, 1), (12, 3, 2, 1), (24, 3, 2, 1), (36, 3, 2, 1), (48, 3, 2, 
+    1), (60, 3, 2, 1), )), ))
 Mdb()
 length, outer, inner = 0.06, 0.030, 0.028
 anglef = 20
@@ -1591,114 +1591,114 @@
 workpiece_mesh_size = 0.005
 Fx,Fy,Fz=0, 0, 0
 if __name__ == "__main__":
- parser = argparse.ArgumentParser(description='argparse')
- parser.add_argument("-dir", nargs=1)
- parser.add_argument("-refresh", nargs=1)
- parser.add_argument("-inner", nargs=1)
- parser.add_argument("-outer", nargs=1)
- parser.add_argument("-length", nargs=1)
- parser.add_argument("-anglef", nargs=1)
- parser.add_argument("-workpiece_young")
- parser.add_argument("-workpiece_poisson")
- parser.add_argument("-displ", nargs=1)
- parser.add_argument("-jaw_length", nargs=1)
- parser.add_argument("-jaw_height", nargs=1)
- parser.add_argument("-jaw_width", nargs=1)
- parser.add_argument("-jaw_young", nargs=1)
- parser.add_argument("-jaw_poisson", nargs=1)
- args, unknown = parser.parse_known_args()
- sys.__stdout__.write(str(args))
- sys.__stdout__.flush()
- res = vars(args)
- try:
-  home = res['dir'][0]
- except:
-  res = {"dir" : ("C:\\DASWD",), 
-    "refresh" : (False,),
-    "inner" : (inner,),
-    "outer" : (outer,),
-    "length" :(length,),
-    "anglef" : (anglef,),
-    "workpiece_young" : (workpiece_young,),
-    "workpiece_poisson" : (workpiece_poisson,),
-    "displ" : (displ,),
-    "jaw_length" : (jaw_length,),
-    "jaw_height" : (jaw_height,),
-    "jaw_width" : (jaw_width,),
-    "jaw_young" : (jaw_young,),
-    "jaw_poisson": (jaw_poisson,),
-  }
- for r in res:
-  try:
-   res[r][0] = res[r][0].replace(",",".")
-  except:
-   pass
- home = res['dir'][0]
- refresh = res['refresh'][0] in ["True","true"]
- inner = float(res['inner'][0])
- outer = float(res['outer'][0])
- length = float(res['length'][0])
- anglef = float(res['anglef'][0])
- workpiece_young = float(res['workpiece_young'][0])
- workpiece_poisson = float(res['workpiece_poisson'][0])
- displ = float(res['displ'][0])
- jaw_length= float(res['jaw_length'][0])
- jaw_height= float(res['jaw_height'][0])
- jaw_width= float(res['jaw_width'][0])
- jaw_young = float(res['jaw_young'][0])
- jaw_poisson = float(res['jaw_poisson'][0])
- os.chdir(home)
- sys.__stdout__.write("Working directory="+str(home)+"\n")
- sys.__stdout__.flush()
- sys.__stdout__.write("Refresh="+str(refresh)+"\n")
- sys.__stdout__.flush()
- sys.__stdout__.write("START\n")
- sys.__stdout__.flush()
- workpiece_part=create_workpiece_part(length, inner, outer, anglef)
- jaw_part = create_jaw_part(jaw_width, jaw_height, jaw_length)
- j_material = create_material('Jaw_material', jaw_young, jaw_poisson)
- w_material = create_material('Workpiece_material', workpiece_young, workpiece_poisson)
- j_section = create_section(section_name='Jaw_section', material_name=j_material)
- w_section = create_section(section_name='Workpiece_section', material_name=w_material)
- mesh_part(part_name = jaw_part, size = jaw_mesh_size, dev_factor=0.1, min_size_factor = 0.1 )
- mesh_part(part_name = workpiece_part, size = workpiece_mesh_size, dev_factor=0.1, min_size_factor = 0.1 )
- assign_section(part_name = jaw_part, section_name = j_section)
- assign_section(part_name = workpiece_part, section_name = w_section)
- create_assembly(displ, outer, length, Fx, Fy, Fz, anglef)
- a = mdb.models['Model-1'].rootAssembly
- session.viewports['Viewport: 1'].setValues(displayedObject=a)
- session.viewports['Viewport: 1'].assemblyDisplay.setValues(optimizationTasks=OFF, geometricRestrictions=OFF, stopConditions=OFF)
- session.writeOBJFile(fileName=home+"/tmp_model.obj",canvasObjects= (session.viewports['Viewport: 1'], ))
- if refresh:
-  sys.__stdout__.write("Refreshed!"+"\n")
-  sys.__stdout__.flush()
-  sys.exit()
- run_job(home)
- o1 = session.openOdb(name=home+'/Job-1.odb')
- odb = session.odbs[home+'/Job-1.odb']
- scratchOdb = session.ScratchOdb(odb)
- scratchOdb.rootAssembly.DatumCsysByThreePoints(name='CSYS-1', 
-  coordSysType=CYLINDRICAL, origin=(0.0, 0.0, 0.0), point1=(1.0, 0.0, 0.0), 
-  point2=(0.0, 1.0, 0.0))
- dtm = session.scratchOdbs[home+'/Job-1.odb'].rootAssembly.datumCsyses['CSYS-1']
- session.viewports['Viewport: 1'].setValues(displayedObject=o1)
- session.viewports['Viewport: 1'].odbDisplay.display.setValues(plotState=(CONTOURS_ON_DEF, ))
- session.viewports['Viewport: 1'].odbDisplay.setPrimaryVariable(
-  variableLabel='U', outputPosition=NODAL, refinement=(COMPONENT, 'U1'), )
- session.viewports['Viewport: 1'].odbDisplay.basicOptions.setValues(
-  transformationType=USER_SPECIFIED, datumCsys=dtm)
- session.xyReportOptions.setValues(numberFormat=SCIENTIFIC)
- pth = create_path()
- session.XYDataFromPath(name='XYData-1', path=pth, includeIntersections=False, 
-     projectOntoMesh=False, pathStyle=PATH_POINTS, numIntervals=10, 
-     projectionTolerance=0, shape=DEFORMED, labelType=TRUE_DISTANCE)
- sys.__stdout__.write("XY data created"+"\n")
- sys.__stdout__.flush()
- x0 = session.xyDataObjects['XYData-1']
- session.writeXYReport(fileName=home+'/abaqus.rpt', appendMode=OFF, xyData=(x0, ))
- session.writeOBJFile(fileName=home+"/tmp_model.obj",canvasObjects= (session.viewports['Viewport: 1'], ))
- sys.__stdout__.write("Script completed!"+"\n")
- sys.__stdout__.flush()
+    parser = argparse.ArgumentParser(description='argparse')
+    parser.add_argument("-dir", nargs=1)
+    parser.add_argument("-refresh", nargs=1)
+    parser.add_argument("-inner", nargs=1)
+    parser.add_argument("-outer", nargs=1)
+    parser.add_argument("-length", nargs=1)
+    parser.add_argument("-anglef", nargs=1)
+    parser.add_argument("-workpiece_young")
+    parser.add_argument("-workpiece_poisson")
+    parser.add_argument("-displ", nargs=1)
+    parser.add_argument("-jaw_length", nargs=1)
+    parser.add_argument("-jaw_height", nargs=1)
+    parser.add_argument("-jaw_width", nargs=1)
+    parser.add_argument("-jaw_young", nargs=1)
+    parser.add_argument("-jaw_poisson", nargs=1)
+    args, unknown = parser.parse_known_args()
+    sys.__stdout__.write(str(args))
+    sys.__stdout__.flush()
+    res = vars(args)
+    try:
+        home = res['dir'][0]
+    except:
+        res = {"dir" : ("C:\\DASworkspace",), 
+                "refresh" : (False,),
+                "inner" : (inner,),
+                "outer" : (outer,),
+                "length" :(length,),
+                "anglef" : (anglef,),
+                "workpiece_young" : (workpiece_young,),
+                "workpiece_poisson" : (workpiece_poisson,),
+                "displ" : (displ,),
+                "jaw_length" : (jaw_length,),
+                "jaw_height" : (jaw_height,),
+                "jaw_width" : (jaw_width,),
+                "jaw_young" : (jaw_young,),
+                "jaw_poisson": (jaw_poisson,),
+        }
+    for r in res:
+        try:
+            res[r][0] = res[r][0].replace(",",".")
+        except:
+            pass
+    home = res['dir'][0]
+    refresh = res['refresh'][0] in ["True","true"]
+    inner = float(res['inner'][0])
+    outer = float(res['outer'][0])
+    length = float(res['length'][0])
+    anglef = float(res['anglef'][0])
+    workpiece_young = float(res['workpiece_young'][0])
+    workpiece_poisson = float(res['workpiece_poisson'][0])
+    displ = float(res['displ'][0])
+    jaw_length= float(res['jaw_length'][0])
+    jaw_height= float(res['jaw_height'][0])
+    jaw_width= float(res['jaw_width'][0])
+    jaw_young = float(res['jaw_young'][0])
+    jaw_poisson = float(res['jaw_poisson'][0])
+    os.chdir(home)
+    sys.__stdout__.write("Working directory="+str(home)+"\n")
+    sys.__stdout__.flush()
+    sys.__stdout__.write("Refresh="+str(refresh)+"\n")
+    sys.__stdout__.flush()
+    sys.__stdout__.write("START\n")
+    sys.__stdout__.flush()
+    workpiece_part=create_workpiece_part(length, inner, outer, anglef)
+    jaw_part = create_jaw_part(jaw_width, jaw_height, jaw_length)
+    j_material = create_material('Jaw_material', jaw_young, jaw_poisson)
+    w_material = create_material('Workpiece_material', workpiece_young, workpiece_poisson)
+    j_section = create_section(section_name='Jaw_section', material_name=j_material)
+    w_section = create_section(section_name='Workpiece_section', material_name=w_material)
+    mesh_part(part_name = jaw_part, size = jaw_mesh_size, dev_factor=0.1, min_size_factor = 0.1 )
+    mesh_part(part_name = workpiece_part, size = workpiece_mesh_size, dev_factor=0.1, min_size_factor = 0.1 )
+    assign_section(part_name = jaw_part, section_name = j_section)
+    assign_section(part_name = workpiece_part, section_name = w_section)
+    create_assembly(displ, outer, length, Fx, Fy, Fz, anglef)
+    a = mdb.models['Model-1'].rootAssembly
+    session.viewports['Viewport: 1'].setValues(displayedObject=a)
+    session.viewports['Viewport: 1'].assemblyDisplay.setValues(optimizationTasks=OFF, geometricRestrictions=OFF, stopConditions=OFF)
+    session.writeOBJFile(fileName=home+"/tmp_model.obj",canvasObjects= (session.viewports['Viewport: 1'], ))
+    if refresh:
+        sys.__stdout__.write("Refreshed!"+"\n")
+        sys.__stdout__.flush()
+        sys.exit()
+    run_job(home)
+    o1 = session.openOdb(name=home+'/Job-1.odb')
+    odb = session.odbs[home+'/Job-1.odb']
+    scratchOdb = session.ScratchOdb(odb)
+    scratchOdb.rootAssembly.DatumCsysByThreePoints(name='CSYS-1', 
+        coordSysType=CYLINDRICAL, origin=(0.0, 0.0, 0.0), point1=(1.0, 0.0, 0.0), 
+        point2=(0.0, 1.0, 0.0))
+    dtm = session.scratchOdbs[home+'/Job-1.odb'].rootAssembly.datumCsyses['CSYS-1']
+    session.viewports['Viewport: 1'].setValues(displayedObject=o1)
+    session.viewports['Viewport: 1'].odbDisplay.display.setValues(plotState=(CONTOURS_ON_DEF, ))
+    session.viewports['Viewport: 1'].odbDisplay.setPrimaryVariable(
+        variableLabel='U', outputPosition=NODAL, refinement=(COMPONENT, 'U1'), )
+    session.viewports['Viewport: 1'].odbDisplay.basicOptions.setValues(
+        transformationType=USER_SPECIFIED, datumCsys=dtm)
+    session.xyReportOptions.setValues(numberFormat=SCIENTIFIC)
+    pth = create_path()
+    session.XYDataFromPath(name='XYData-1', path=pth, includeIntersections=False, 
+                    projectOntoMesh=False, pathStyle=PATH_POINTS, numIntervals=10, 
+                    projectionTolerance=0, shape=DEFORMED, labelType=TRUE_DISTANCE)
+    sys.__stdout__.write("XY data created"+"\n")
+    sys.__stdout__.flush()
+    x0 = session.xyDataObjects['XYData-1']
+    session.writeXYReport(fileName=home+'/abaqus.rpt', appendMode=OFF, xyData=(x0, ))
+    session.writeOBJFile(fileName=home+"/tmp_model.obj",canvasObjects= (session.viewports['Viewport: 1'], ))
+    sys.__stdout__.write("Script completed!"+"\n")
+    sys.__stdout__.flush()
 </t>
   </si>
 </sst>
@@ -2700,7 +2700,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="79.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
